--- a/tg403/data/ppm.xlsx
+++ b/tg403/data/ppm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>time</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
         <v>1312</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -499,245 +499,245 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ClC\C=C/Cl</t>
+          <t>ClC=CCCl</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>707</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10431-98-8</t>
+          <t>102687-65-0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CCC1=NCCO1</t>
+          <t>FC(F)(F)C=CCl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>635</v>
+        <v>120000</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10493-43-3</t>
+          <t>10431-98-8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FC(F)=C(F)OC(F)(F)C(F)(F)F</t>
+          <t>CCC1=NCCO1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21000</v>
+        <v>635</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1066-35-9</t>
+          <t>10493-43-3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C[Si](C)Cl</t>
+          <t>FC(F)=C(F)OC(F)(F)C(F)(F)F</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4478</v>
+        <v>21000</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1066-40-6</t>
+          <t>106-98-9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Li+].C[Si](C)(C)[O-]</t>
+          <t>C=CCC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3151</v>
+        <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>107-02-8</t>
+          <t>1066-35-9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C=CC=O</t>
+          <t>C[SiH](C)Cl</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16.75</v>
+        <v>4478</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>107-11-9</t>
+          <t>1066-40-6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCC=C</t>
+          <t>C[Si](C)(C)O</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>177</v>
+        <v>3151</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>107-13-1</t>
+          <t>107-01-7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C=CC#N</t>
+          <t>CC=CC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>943.3333333333334</v>
+        <v>10000</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>107-18-6</t>
+          <t>107-02-8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OCC=C</t>
+          <t>C=CC=O</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>183.3333333333333</v>
+        <v>16.75</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>107-46-0</t>
+          <t>107-11-9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C[Si](C)(C)O[Si](C)(C)C</t>
+          <t>C=CCN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15956</v>
+        <v>177</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>108-01-0</t>
+          <t>107-13-1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CN(C)CCO</t>
+          <t>C=CC#N</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1641</v>
+        <v>943.3333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>109-67-1</t>
+          <t>107-18-6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CCCC=C</t>
+          <t>C=CCO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10000</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>109-89-7</t>
+          <t>107-46-0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CCNCC</t>
+          <t>C[Si](C)(C)O[Si](C)(C)C</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5700</v>
+        <v>15956</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>110-54-3</t>
+          <t>108-01-0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CCCCCC</t>
+          <t>CN(C)CCO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>73860</v>
+        <v>1641</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
@@ -746,160 +746,160 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>110-95-2</t>
+          <t>109-67-1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C[NH+](C)CCC[NH+](C)C</t>
+          <t>C=CCCC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>111-44-4</t>
+          <t>109-89-7</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ClCCOCCCl</t>
+          <t>CCNCC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>250</v>
+        <v>5700</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>111-66-0</t>
+          <t>110-01-0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CCCCCCC=C</t>
+          <t>C1CCSC1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8050</v>
+        <v>6270</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>111-92-2</t>
+          <t>110-54-3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CCCCNCCCC</t>
+          <t>CCCCCC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>218</v>
+        <v>73860</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>111109-77-4</t>
+          <t>110-95-2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COCCCOCCCOC</t>
+          <t>CN(C)CCCN(C)C</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>792</v>
+        <v>1000</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>112-41-4</t>
+          <t>111-44-4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCC=C</t>
+          <t>ClCCOCCCl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8050</v>
+        <v>250</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>112-88-9</t>
+          <t>111-66-0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCCC=C</t>
+          <t>C=CCCCCCC</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>8050</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1120-36-1</t>
+          <t>111-92-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCC=C</t>
+          <t>CCCCNCCCC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8050</v>
+        <v>218</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>115-10-6</t>
+          <t>112-41-4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COC</t>
+          <t>C=CCCCCCCCCCC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>164000</v>
+        <v>8050</v>
       </c>
       <c r="D26" t="n">
         <v>4</v>
@@ -908,34 +908,34 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>115-21-9</t>
+          <t>112-88-9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CC[Si](Cl)(Cl)Cl</t>
+          <t>C=CCCCCCCCCCCCCCCCC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1257</v>
+        <v>8050</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>116-14-3</t>
+          <t>1120-36-1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FC(F)=C(F)F</t>
+          <t>C=CCCCCCCCCCCCC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>28500</v>
+        <v>8050</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
@@ -944,250 +944,250 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>116-15-4</t>
+          <t>115-10-6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FC(F)=C(F)C(F)(F)F</t>
+          <t>COC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3060</v>
+        <v>164000</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1185-55-3</t>
+          <t>115-11-7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CO[Si](C)(OC)OC</t>
+          <t>C=C(C)C</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7605</v>
+        <v>10000</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1187-93-5</t>
+          <t>115-21-9</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FC(F)=C(F)OC(F)(F)F</t>
+          <t>CC[Si](Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10000</v>
+        <v>1257</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>121-44-8</t>
+          <t>116-14-3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CCN(CC)CC</t>
+          <t>FC(F)=C(F)F</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3496</v>
+        <v>28500</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>123-54-6</t>
+          <t>116-15-4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CC(=O)CC(C)=O</t>
+          <t>FC(F)=C(F)C(F)(F)F</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1224</v>
+        <v>3060</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>124-63-0</t>
+          <t>1185-55-3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C[S](Cl)(=O)=O</t>
+          <t>CO[Si](C)(OC)OC</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29</v>
+        <v>7605</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>124-70-9</t>
+          <t>1187-93-5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C[Si](Cl)(Cl)C=C</t>
+          <t>FC(F)=C(F)OC(F)(F)F</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2021</v>
+        <v>10000</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13171-18-1</t>
+          <t>121-44-8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COC(C(F)(F)F)C(F)(F)F</t>
+          <t>CCN(CC)CC</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24685</v>
+        <v>3496</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13862-16-3</t>
+          <t>123-54-6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[SiH3]N([SiH3])[SiH3]</t>
+          <t>CC(=O)CC(C)=O</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>99</v>
+        <v>1224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13893-53-3</t>
+          <t>124-63-0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CC(C)C(C)(N)C#N</t>
+          <t>CS(=O)(=O)Cl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>141-57-1</t>
+          <t>124-70-9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CCC[Si](Cl)(Cl)Cl</t>
+          <t>C=C[Si](C)(Cl)Cl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1352</v>
+        <v>2021</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1514-82-5</t>
+          <t>126990-35-0</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FC(F)(F)C(Br)=C</t>
+          <t>CO[Si](OC)(C1CCCC1)C1CCCC1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11726</v>
+        <v>22</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15396-00-6</t>
+          <t>13171-18-1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CO[Si](CCCN=C=O)(OC)OC</t>
+          <t>COC(C(F)(F)F)C(F)(F)F</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>24685</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>156-60-5</t>
+          <t>13862-16-3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cl\C=C\Cl</t>
+          <t>[SiH3]N([SiH3])[SiH3]</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>24100</v>
+        <v>99</v>
       </c>
       <c r="D42" t="n">
         <v>4</v>
@@ -1196,196 +1196,196 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16068-37-4</t>
+          <t>13893-53-3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CCO[Si](CC[Si](OCC)(OCC)OCC)(OCC)OCC</t>
+          <t>CC(C)C(C)(N)C#N</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16215-21-7</t>
+          <t>14024-18-1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CCCCOC(=O)CCS</t>
+          <t>CC(=O)[CH-]C(C)=O</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>430</v>
+        <v>1224</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16219-75-3</t>
+          <t>141-57-1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C\C=C1/CC2CC1C=C2</t>
+          <t>CCC[Si](Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2866</v>
+        <v>1352</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1704-62-7</t>
+          <t>1514-82-5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CN(C)CCOCCO</t>
+          <t>C=C(Br)C(F)(F)F</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>70</v>
+        <v>11726</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1800-91-5</t>
+          <t>15396-00-6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FC(F)(C=C)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C=C</t>
+          <t>CO[Si](CCCN=C=O)(OC)OC</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1761</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18395-30-7</t>
+          <t>156-60-5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CO[Si](CC(C)C)(OC)OC</t>
+          <t>ClC=CCl</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1525</v>
+        <v>24100</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18406-41-2</t>
+          <t>16068-37-4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CO[Si](CC[Si](OC)(OC)OC)(OC)OC</t>
+          <t>CCO[Si](CC[Si](OCC)(OCC)OCC)(OCC)OCC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.4</v>
+        <v>26</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2031-62-1</t>
+          <t>16215-21-7</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CCO[Si](C)OCC</t>
+          <t>CCCCOC(=O)CCS</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4731</v>
+        <v>430</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2210-79-9</t>
+          <t>16219-75-3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cc1ccccc1OCC2CO2</t>
+          <t>CC=C1CC2C=CC1C2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.1</v>
+        <v>2866</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>22504-50-3</t>
+          <t>166524-65-8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SCCC(=O)OCCOC(=O)CCS</t>
+          <t>CCOc1nc(F)cc(F)n1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>430</v>
+        <v>191</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2414-98-4</t>
+          <t>1704-62-7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[Mg++].CC[O-].CC[O-]</t>
+          <t>CN(C)CCOCCO</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>60000</v>
+        <v>70</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
@@ -1394,124 +1394,124 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>24801-88-5</t>
+          <t>1800-91-5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CCO[Si](CCCN=C=O)(OCC)OCC</t>
+          <t>C=CC(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C=C</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.5</v>
+        <v>1761</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2487-90-3</t>
+          <t>18395-30-7</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CO[Si](OC)OC</t>
+          <t>CO[Si](CC(C)C)(OC)OC</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>61</v>
+        <v>1525</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25264-93-1</t>
+          <t>18406-41-2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CCC\C=C\C</t>
+          <t>CO[Si](CC[Si](OC)(OC)OC)(OC)OC</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8050</v>
+        <v>2.4</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>25339-53-1</t>
+          <t>2031-62-1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CCCCCCC\C=C\C</t>
+          <t>CCO[SiH](C)OCC</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8050</v>
+        <v>4731</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>25377-83-7</t>
+          <t>2210-79-9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CCCC\C=C\CC</t>
+          <t>Cc1ccccc1OCC1CO1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8050</v>
+        <v>6.1</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>25899-50-7</t>
+          <t>22504-50-3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CC\C=C/C#N</t>
+          <t>O=C(CCS)OCCOC(=O)CCS</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>850</v>
+        <v>430</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2627-95-4</t>
+          <t>2414-98-4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C[Si](C)(O[Si](C)(C)C=C)C=C</t>
+          <t>CC[O-]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>246</v>
+        <v>60000</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1520,196 +1520,194 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>26471-62-5</t>
+          <t>24801-88-5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cc1ccc(cc1N=C=O)N=C=O</t>
+          <t>CCO[Si](CCCN=C=O)(OCC)OCC</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>66</v>
+        <v>10.5</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>26952-14-7</t>
+          <t>2487-90-3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCC=C</t>
+          <t>CO[SiH](OC)OC</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8050</v>
+        <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>27070-58-2</t>
+          <t>25264-93-1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCCC=C</t>
+          <t>C=CCCCC</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>8050</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>27215-95-8</t>
+          <t>25377-83-7</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CCCCCC\C=C\C</t>
+          <t>C=CCCCCCC</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>8050</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2768-02-7</t>
+          <t>25899-50-7</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CO[Si](OC)(OC)C=C</t>
+          <t>CCC=CC#N</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2773</v>
+        <v>850</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2943-75-1</t>
+          <t>2627-95-4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CCCCCCCC[Si](OCC)(OCC)OCC</t>
+          <t>C=C[Si](C)(C)O[Si](C)(C)C=C</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3010-02-4</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>CCN(CC)CC#N</t>
-        </is>
+          <t>26471-62-5</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>302-01-2</t>
+          <t>26952-14-7</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>C=CCCCCCCCCCCCCCC</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>570</v>
+        <v>8050</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3030-47-5</t>
+          <t>2768-02-7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CN(C)CCN(C)CCN(C)C</t>
+          <t>C=C[Si](OC)(OC)OC</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>290</v>
+        <v>2773</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3048-64-4</t>
+          <t>2943-75-1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C=CC1CC2CC1C=C2</t>
+          <t>CCCCCCCC[Si](OCC)(OCC)OCC</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2374.5</v>
+        <v>22</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>306-83-2</t>
+          <t>3010-02-4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FC(F)(F)C(Cl)Cl</t>
+          <t>CCN(CC)CC#N</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>28000</v>
+        <v>62</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
@@ -1718,124 +1716,124 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30674-80-7</t>
+          <t>302-01-2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CC(=C)C(=O)OCCN=C=O</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17.4775</v>
+        <v>570</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3353-69-3</t>
+          <t>3030-47-5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C[Si](Cl)(Cl)CC[Si](C)(Cl)Cl</t>
+          <t>CN(C)CCN(C)CCN(C)C</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1257</v>
+        <v>290</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>375-50-8</t>
+          <t>3048-64-4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FC(F)(I)C(F)(F)C(F)(F)C(F)(F)I</t>
+          <t>C=CC1CC2C=CC1C2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1238</v>
+        <v>2374.5</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4109-96-0</t>
+          <t>306-83-2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cl[SiH2]Cl</t>
+          <t>FC(F)(F)C(Cl)Cl</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>314</v>
+        <v>28000</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4170-30-3</t>
+          <t>30674-80-7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C\C=C/C=O</t>
+          <t>C=C(C)C(=O)OCCN=C=O</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>928</v>
+        <v>17.4775</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>428-59-1</t>
+          <t>3353-69-3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FC(F)(F)C1(F)OC1(F)F</t>
+          <t>C[Si](Cl)(Cl)CC[Si](C)(Cl)Cl</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2072</v>
+        <v>1257</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>431-89-0</t>
+          <t>375-50-8</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FC(C(F)(F)F)C(F)(F)F</t>
+          <t>FC(F)(I)C(F)(F)C(F)(F)C(F)(F)I</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>788696</v>
+        <v>1238</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -1844,16 +1842,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4488-57-7</t>
+          <t>4109-96-0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C1CC2CC1C3CC=CC23</t>
+          <t>Cl[SiH2]Cl</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>318.5</v>
+        <v>314</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1862,340 +1860,338 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>460-73-1</t>
+          <t>4170-30-3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FC(F)CC(F)(F)F</t>
+          <t>C/C=C/C=O</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>116000</v>
+        <v>928</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>1.183333333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>462-95-3</t>
+          <t>428-59-1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CCOCOCC</t>
+          <t>FC(F)(F)C1(F)OC1(F)F</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6643</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3</v>
-      </c>
+        <v>2072</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>50-00-0</t>
+          <t>431-89-0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C=O</t>
+          <t>FC(C(F)(F)F)C(F)(F)F</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>463</v>
+        <v>788696</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>534-22-5</t>
+          <t>4488-57-7</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cc1occc1</t>
+          <t>C1=CC2C3CCC(C3)C2C1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1700</v>
+        <v>318.5</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>555-31-7</t>
+          <t>460-73-1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[Al+3].CC(C)[O-].CC(C)[O-].CC(C)[O-]</t>
+          <t>FC(F)CC(F)(F)F</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10000</v>
+        <v>116000</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>56-23-5</t>
+          <t>462-95-3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>CCOCOCC</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7228</v>
+        <v>6643</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>563-80-4</t>
+          <t>50-00-0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CC(C)C(C)=O</t>
+          <t>C=O</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6372.666666666667</v>
+        <v>463</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>565-80-0</t>
+          <t>534-22-5</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CC(C)C(=O)C(C)C</t>
+          <t>Cc1ccco1</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2765</v>
+        <v>1700</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>57-57-8</t>
+          <t>54068-28-9</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>O=C1CCO1</t>
+          <t>[CH2-]CCCCCCC</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>1224</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>592-41-6</t>
+          <t>555-31-7</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CCCCC=C</t>
+          <t>CC(C)[O-]</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8050</v>
+        <v>10000</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5989-54-8</t>
+          <t>56-23-5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CC(=C)[C@H]1CCC(=CC1)C</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2421</v>
+        <v>7228</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>60-34-4</t>
+          <t>563-80-4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>CC(=O)C(C)C</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>96.59999999999999</v>
+        <v>6372.666666666667</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>617-86-7</t>
+          <t>565-80-0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CC[Si](CC)CC</t>
+          <t>CC(C)C(=O)C(C)C</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1774</v>
+        <v>2765</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>623-40-5</t>
+          <t>57-57-8</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CCC\C(C)=N/O</t>
+          <t>O=C1CCO1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>624-86-2</t>
+          <t>592-41-6</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CCON</t>
+          <t>C=CCCCC</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>342</v>
+        <v>8050</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>624-92-0</t>
+          <t>5989-54-8</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CSSC</t>
+          <t>C=C(C)C1CC=C(C)CC1</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1310</v>
+        <v>2421</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>629-73-2</t>
+          <t>60-34-4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCC=C</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8050</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>630-08-0</t>
+          <t>617-86-7</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[C-]#[O+]</t>
+          <t>CC[SiH](CC)CC</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1300</v>
+        <v>1774</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>64-17-5</t>
+          <t>623-40-5</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CCO</t>
+          <t>CCCC(C)=NO</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>60000</v>
+        <v>295</v>
       </c>
       <c r="D98" t="n">
         <v>4</v>
@@ -2204,304 +2200,300 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>64-19-7</t>
+          <t>624-86-2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CC(O)=O</t>
+          <t>CCON</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16000</v>
+        <v>342</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>660-68-4</t>
+          <t>624-92-0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[Cl-].CC[NH2+]CC</t>
+          <t>CSSC</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5700</v>
+        <v>1310</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>67-63-0</t>
+          <t>629-73-2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CC(C)O</t>
+          <t>C=CCCCCCCCCCCCCCC</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10000</v>
+        <v>8050</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>681-84-5</t>
+          <t>630-08-0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CO[Si](OC)(OC)OC</t>
+          <t>[C-]#[O+]</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>63</v>
+        <v>1300</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>68526-55-6</t>
+          <t>64-17-5</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CCCCCCCC=C</t>
+          <t>CCO</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>8050</v>
+        <v>60000</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>68526-56-7</t>
+          <t>64-19-7</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CC/C=C/CC/C=C/C=C</t>
+          <t>CC(=O)O</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>318.5</v>
+        <v>16000</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>68526-85-2</t>
+          <t>660-68-4</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CC(C)CCCCCCCO</t>
+          <t>CC[NH2+]CC</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
+        <v>5700</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>68526-86-3</t>
+          <t>66711-86-2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CC(C)CCCCCCCCCCO</t>
+          <t>FC(F)(F)C=CC(F)(F)F</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>12.2</v>
+        <v>17000</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>68551-08-6</t>
+          <t>67-63-0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CC(C)CCCCCCCO</t>
+          <t>CC(C)O</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>95.3</v>
+        <v>10000</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>68583-51-7</t>
+          <t>681-84-5</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CCCCCCCCCC(O)=O.CCCCCCCC(O)=O.CC(O)CO</t>
+          <t>CO[Si](OC)(OC)OC</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>68586-02-7</t>
+          <t>68526-56-7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[Ti+4].CC[O-].CC(C)[O-].CC(=O)[CH-]C(C)=O.CC(=O)[CH-]C(C)=O</t>
+          <t>C=C/C=C/CC/C=C/CC</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1224</v>
+        <v>318.5</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>71-43-2</t>
+          <t>68526-86-3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>c1ccccc1</t>
+          <t>CC(C)CCCCCCCCCCO</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13700</v>
+        <v>12.2</v>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>74-93-1</t>
+          <t>68551-08-6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>CC(C)CCCCCCCO</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>675</v>
+        <v>95.3</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>75-00-3</t>
+          <t>68583-51-7</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CCCl</t>
+          <t>CCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>19000</v>
+        <v>200</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>75-05-8</t>
+          <t>68586-02-7</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CC#N</t>
+          <t>[H][C-]1C(C)=[O][Ti+4]2([O-]CC)([O-]C(C)C)([O]=C1C)[O]=C(C)[C-]([H])C(C)=[O]2</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3587</v>
-      </c>
-      <c r="D113" t="n">
-        <v>3</v>
-      </c>
+        <v>1224</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>75-07-0</t>
+          <t>692-49-9</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CC=O</t>
+          <t>FC(F)(F)/C=C\C(F)(F)F</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>13300</v>
+        <v>102900</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>75-18-3</t>
+          <t>71-43-2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>c1ccccc1</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>40250</v>
+        <v>13700</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -2510,70 +2502,70 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>75-21-8</t>
+          <t>74-93-1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C1CO1</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>75-26-3</t>
+          <t>75-00-3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CC(C)Br</t>
+          <t>CCCl</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9923</v>
+        <v>19000</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>75-31-0</t>
+          <t>75-05-8</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CC(C)N</t>
+          <t>CC#N</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3540</v>
+        <v>3587</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>75-46-7</t>
+          <t>75-07-0</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FC(F)F</t>
+          <t>CC=O</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>663000</v>
+        <v>13300</v>
       </c>
       <c r="D119" t="n">
         <v>4</v>
@@ -2582,70 +2574,70 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>75-50-3</t>
+          <t>75-18-3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CN(C)C</t>
+          <t>CSC</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3500</v>
+        <v>40250</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>75-54-7</t>
+          <t>75-21-8</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C[Si](Cl)Cl</t>
+          <t>C1CO1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1785</v>
+        <v>660</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>75-56-9</t>
+          <t>75-26-3</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CC1CO1</t>
+          <t>CC(C)Br</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4197</v>
+        <v>9923</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>75-66-1</t>
+          <t>75-31-0</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CC(C)(C)S</t>
+          <t>CC(C)N</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>26643</v>
+        <v>3540</v>
       </c>
       <c r="D123" t="n">
         <v>4</v>
@@ -2654,70 +2646,70 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>75-77-4</t>
+          <t>75-46-7</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C[Si](C)(C)Cl</t>
+          <t>FC(F)F</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4257</v>
+        <v>663000</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>75-78-5</t>
+          <t>75-50-3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C[Si](C)(Cl)Cl</t>
+          <t>CN(C)C</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2092</v>
+        <v>3500</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>75-79-6</t>
+          <t>75-54-7</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>C[Si](Cl)(Cl)Cl</t>
+          <t>C[SiH](Cl)Cl</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1365</v>
+        <v>1785</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>75-83-2</t>
+          <t>75-56-9</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CCC(C)(C)C</t>
+          <t>CC1CO1</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>73860</v>
+        <v>4197</v>
       </c>
       <c r="D127" t="n">
         <v>4</v>
@@ -2726,559 +2718,643 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>75-85-4</t>
+          <t>75-66-1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CCC(C)(C)O</t>
+          <t>CC(C)(C)S</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3000</v>
+        <v>26643</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>75-89-8</t>
+          <t>75-73-0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>OCC(F)(F)F</t>
+          <t>FC(F)(F)F</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>784</v>
+        <v>50000</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>75-94-5</t>
+          <t>75-77-4</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cl[Si](Cl)(Cl)C=C</t>
+          <t>C[Si](C)(C)Cl</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1121</v>
+        <v>4257</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>76-16-4</t>
+          <t>75-78-5</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FC(F)(F)C(F)(F)F</t>
+          <t>C[Si](C)(Cl)Cl</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>500000</v>
+        <v>2092</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>763-69-9</t>
+          <t>75-79-6</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CCOCCC(=O)OCC</t>
+          <t>C[Si](Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>998</v>
+        <v>1365</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7691-02-3</t>
+          <t>75-83-2</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C[Si](C)(N[Si](C)(C)C=C)C=C</t>
+          <t>CCC(C)(C)C</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1516</v>
+        <v>73860</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>77-47-4</t>
+          <t>75-85-4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ClC1=C(Cl)C(Cl)(Cl)C(=C1Cl)Cl</t>
+          <t>CCC(C)(C)O</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2.55</v>
+        <v>3000</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>77-73-6</t>
+          <t>75-89-8</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>C1C=CC2C3CC(C=C3)C12</t>
+          <t>OCC(F)(F)F</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>318.5</v>
+        <v>784</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7756-94-7</t>
+          <t>75-94-5</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>C[C](C)C</t>
+          <t>C=C[Si](Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4185</v>
+        <v>1121</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7782-41-4</t>
+          <t>754-12-1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>C=C(F)C(F)(F)F</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>185</v>
+        <v>405000</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7783-06-4</t>
+          <t>76-16-4</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>FC(F)(F)C(F)(F)F</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>474.3333333333333</v>
+        <v>500000</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7783-54-2</t>
+          <t>763-69-9</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FN(F)F</t>
+          <t>CCOCCC(=O)OCC</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5312.5</v>
+        <v>998</v>
       </c>
       <c r="D139" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7787-93-1</t>
+          <t>7691-02-3</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>C[Si](Cl)(Cl)CCCCl</t>
+          <t>C=C[Si](C)(C)N[Si](C)(C)C=C</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1257</v>
+        <v>1516</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7803-51-2</t>
+          <t>77-47-4</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ClC1=C(Cl)C(Cl)(Cl)C(Cl)=C1Cl</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>42.85</v>
+        <v>2.55</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7803-62-5</t>
+          <t>77-73-6</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[Si]</t>
+          <t>C1=CC2C3C=CC(C3)C2C1</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>9600</v>
+        <v>318.5</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>79-29-8</t>
+          <t>7756-94-7</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CC(C)C(C)C</t>
+          <t>CC(C)=CC(C)(C)CC(C)(C)C</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>73860</v>
-      </c>
-      <c r="D143" t="n">
-        <v>4</v>
-      </c>
+        <v>4185</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>79-37-8</t>
+          <t>7782-41-4</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ClC(=O)C(Cl)=O</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1156.25</v>
+        <v>185</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>872-05-9</t>
+          <t>7783-06-4</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8050</v>
+        <v>474.3333333333333</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>9003-29-6</t>
+          <t>7783-54-2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CCC=C.C\C=C\C</t>
+          <t>FN(F)F</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>4185</v>
+        <v>5312.5</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>91-20-3</t>
+          <t>7787-93-1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>c1ccc2ccccc2c1</t>
+          <t>C[Si](Cl)(Cl)CCCCl</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>77.7</v>
+        <v>1257</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>919-30-2</t>
+          <t>7803-51-2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CCO[Si](CCCN)(OCC)OCC</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>10.5</v>
+        <v>42.85</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>93762-80-2</t>
+          <t>7803-62-5</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CCCCCC/C=C/CC/C=C/CCCC</t>
+          <t>[SiH4]</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8050</v>
+        <v>9600</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>93924-10-8</t>
+          <t>79-29-8</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCCCCCCC=C</t>
+          <t>CC(C)C(C)C</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>8050</v>
+        <v>73860</v>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>93924-11-9</t>
+          <t>79-37-8</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCCCCCCCCCCC=C</t>
+          <t>O=C(Cl)C(=O)Cl</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8050</v>
+        <v>1156.25</v>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>94239-04-0</t>
+          <t>80793-17-5</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fc1cccc(n1)C(F)(F)F</t>
+          <t>CCC(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)F</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2529.5</v>
+        <v>10000</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>95-53-4</t>
+          <t>872-05-9</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cc1ccccc1N</t>
+          <t>C=CCCCCCCCC</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>862</v>
+        <v>8050</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>96-34-4</t>
+          <t>91-20-3</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>COC(=O)CCl</t>
+          <t>c1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>210</v>
+        <v>77.7</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>97-94-9</t>
+          <t>919-30-2</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CCB(CC)CC</t>
+          <t>CCO[Si](CCCN)(OCC)OCC</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>738</v>
+        <v>10.5</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>97-99-4</t>
+          <t>93924-10-8</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>OCC1CCCO1</t>
+          <t>C=CCCCCCCCCCCCCCCCCCCCC</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>751</v>
+        <v>8050</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>993-07-7</t>
+          <t>94239-04-0</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>C[Si](C)C</t>
+          <t>Fc1cccc(C(F)(F)F)n1</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1774</v>
+        <v>2529.5</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>95-53-4</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Cc1ccccc1N</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>862</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>96-34-4</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>COC(=O)CCl</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>210</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>97-94-9</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CCB(CC)CC</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>738</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>97-99-4</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>OCC1CCCO1</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>751</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>993-07-7</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>C[SiH](C)C</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1774</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>999-97-3</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>C[Si](C)(C)N[Si](C)(C)C</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C163" t="n">
         <v>1516</v>
       </c>
-      <c r="D158" t="n">
-        <v>2</v>
+      <c r="D163" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tg403/data/ppm.xlsx
+++ b/tg403/data/ppm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
         </is>
       </c>
     </row>
@@ -467,10 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
         <v>500000</v>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
+      <c r="E2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>1312</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>707</v>
       </c>
-      <c r="D4" t="n">
-        <v>4</v>
+      <c r="E4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>120000</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
+      <c r="E5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>635</v>
       </c>
-      <c r="D6" t="n">
-        <v>7</v>
+      <c r="E6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>21000</v>
       </c>
-      <c r="D7" t="n">
-        <v>4</v>
+      <c r="E7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -575,9 +598,12 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>10000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -593,10 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>4478</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
+      <c r="E9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -611,9 +640,12 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>3151</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -629,9 +661,12 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
         <v>10000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -647,10 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="n">
         <v>16.75</v>
       </c>
-      <c r="D12" t="n">
-        <v>2.5</v>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
         <v>177</v>
       </c>
-      <c r="D13" t="n">
-        <v>8</v>
+      <c r="E13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
         <v>943.3333333333334</v>
       </c>
-      <c r="D14" t="n">
-        <v>4</v>
+      <c r="E14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D15" t="n">
         <v>183.3333333333333</v>
       </c>
-      <c r="D15" t="n">
-        <v>4.333333333333333</v>
+      <c r="E15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -719,9 +766,12 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
         <v>15956</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -737,10 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
         <v>1641</v>
       </c>
-      <c r="D17" t="n">
-        <v>4</v>
+      <c r="E17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -755,9 +808,12 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
         <v>10000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -773,9 +829,12 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
         <v>5700</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -791,9 +850,12 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
         <v>6270</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -809,10 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
         <v>73860</v>
       </c>
-      <c r="D21" t="n">
-        <v>4</v>
+      <c r="E21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -827,10 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
         <v>1000</v>
       </c>
-      <c r="D22" t="n">
-        <v>4</v>
+      <c r="E22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -845,10 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
         <v>250</v>
       </c>
-      <c r="D23" t="n">
-        <v>4</v>
+      <c r="E23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -863,9 +934,12 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
         <v>8050</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -881,10 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
         <v>218</v>
       </c>
-      <c r="D25" t="n">
-        <v>4</v>
+      <c r="E25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -899,9 +976,12 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
         <v>8050</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -917,9 +997,12 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
         <v>8050</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -935,9 +1018,12 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
         <v>8050</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -953,10 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
         <v>164000</v>
       </c>
-      <c r="D29" t="n">
-        <v>4</v>
+      <c r="E29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -971,9 +1060,12 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
         <v>10000</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -989,10 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
         <v>1257</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
+      <c r="E31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1007,10 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
         <v>28500</v>
       </c>
-      <c r="D32" t="n">
-        <v>4</v>
+      <c r="E32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1025,9 +1123,12 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
         <v>3060</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1043,10 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n">
         <v>7605</v>
       </c>
-      <c r="D34" t="n">
-        <v>6</v>
+      <c r="E34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1061,9 +1165,12 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
         <v>10000</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1079,10 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
         <v>3496</v>
       </c>
-      <c r="D36" t="n">
-        <v>1</v>
+      <c r="E36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1097,10 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
         <v>1224</v>
       </c>
-      <c r="D37" t="n">
-        <v>4</v>
+      <c r="E37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1115,10 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" t="n">
         <v>29</v>
       </c>
-      <c r="D38" t="n">
-        <v>6</v>
+      <c r="E38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1133,10 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>2021</v>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
+      <c r="E39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1151,10 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
         <v>22</v>
       </c>
-      <c r="D40" t="n">
-        <v>4</v>
+      <c r="E40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1169,10 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
         <v>24685</v>
       </c>
-      <c r="D41" t="n">
-        <v>4</v>
+      <c r="E41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1187,10 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
         <v>99</v>
       </c>
-      <c r="D42" t="n">
-        <v>4</v>
+      <c r="E42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1205,10 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
         <v>73</v>
       </c>
-      <c r="D43" t="n">
-        <v>4</v>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1223,10 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
         <v>1224</v>
       </c>
-      <c r="D44" t="n">
-        <v>4</v>
+      <c r="E44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1241,10 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
         <v>1352</v>
       </c>
-      <c r="D45" t="n">
-        <v>1</v>
+      <c r="E45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1259,9 +1396,12 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
         <v>11726</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1277,10 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
         <v>15</v>
       </c>
-      <c r="D47" t="n">
-        <v>4</v>
+      <c r="E47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1295,10 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
         <v>24100</v>
       </c>
-      <c r="D48" t="n">
-        <v>4</v>
+      <c r="E48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1313,10 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
         <v>26</v>
       </c>
-      <c r="D49" t="n">
-        <v>4</v>
+      <c r="E49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1331,10 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
         <v>430</v>
       </c>
-      <c r="D50" t="n">
-        <v>4</v>
+      <c r="E50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1349,9 +1501,12 @@
         </is>
       </c>
       <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
         <v>2866</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1367,10 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
         <v>191</v>
       </c>
-      <c r="D52" t="n">
-        <v>4</v>
+      <c r="E52" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1385,10 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
         <v>70</v>
       </c>
-      <c r="D53" t="n">
-        <v>4</v>
+      <c r="E53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1403,10 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
         <v>1761</v>
       </c>
-      <c r="D54" t="n">
-        <v>4</v>
+      <c r="E54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1421,10 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
         <v>1525</v>
       </c>
-      <c r="D55" t="n">
-        <v>4</v>
+      <c r="E55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1439,10 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
         <v>2.4</v>
       </c>
-      <c r="D56" t="n">
-        <v>4</v>
+      <c r="E56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1457,9 +1627,12 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
         <v>4731</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1475,10 +1648,13 @@
         </is>
       </c>
       <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
         <v>6.1</v>
       </c>
-      <c r="D58" t="n">
-        <v>4</v>
+      <c r="E58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1493,10 +1669,13 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
         <v>430</v>
       </c>
-      <c r="D59" t="n">
-        <v>4</v>
+      <c r="E59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1511,10 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
         <v>60000</v>
       </c>
-      <c r="D60" t="n">
-        <v>1</v>
+      <c r="E60" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1529,10 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
         <v>10.5</v>
       </c>
-      <c r="D61" t="n">
-        <v>6</v>
+      <c r="E61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1547,10 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
         <v>61</v>
       </c>
-      <c r="D62" t="n">
-        <v>4</v>
+      <c r="E62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1565,9 +1753,12 @@
         </is>
       </c>
       <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
         <v>8050</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1583,9 +1774,12 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
         <v>8050</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1601,10 +1795,13 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
         <v>850</v>
       </c>
-      <c r="D65" t="n">
-        <v>4</v>
+      <c r="E65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1619,10 +1816,13 @@
         </is>
       </c>
       <c r="C66" t="n">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
         <v>246</v>
       </c>
-      <c r="D66" t="n">
-        <v>6</v>
+      <c r="E66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1635,9 +1835,12 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
         <v>66</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1653,9 +1856,12 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
         <v>8050</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1671,9 +1877,12 @@
         </is>
       </c>
       <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="n">
         <v>2773</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1689,10 +1898,13 @@
         </is>
       </c>
       <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
         <v>22</v>
       </c>
-      <c r="D70" t="n">
-        <v>4</v>
+      <c r="E70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1707,10 +1919,13 @@
         </is>
       </c>
       <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
         <v>62</v>
       </c>
-      <c r="D71" t="n">
-        <v>4</v>
+      <c r="E71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1725,10 +1940,13 @@
         </is>
       </c>
       <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
         <v>570</v>
       </c>
-      <c r="D72" t="n">
-        <v>4</v>
+      <c r="E72" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -1743,10 +1961,13 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
         <v>290</v>
       </c>
-      <c r="D73" t="n">
-        <v>6</v>
+      <c r="E73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -1761,10 +1982,13 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
         <v>2374.5</v>
       </c>
-      <c r="D74" t="n">
-        <v>4</v>
+      <c r="E74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -1779,10 +2003,13 @@
         </is>
       </c>
       <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
         <v>28000</v>
       </c>
-      <c r="D75" t="n">
-        <v>4</v>
+      <c r="E75" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -1797,10 +2024,13 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D76" t="n">
         <v>17.4775</v>
       </c>
-      <c r="D76" t="n">
-        <v>3.5</v>
+      <c r="E76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1815,10 +2045,13 @@
         </is>
       </c>
       <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
         <v>1257</v>
       </c>
-      <c r="D77" t="n">
-        <v>1</v>
+      <c r="E77" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -1833,10 +2066,13 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
         <v>1238</v>
       </c>
-      <c r="D78" t="n">
-        <v>4</v>
+      <c r="E78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -1851,10 +2087,13 @@
         </is>
       </c>
       <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
         <v>314</v>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
+      <c r="E79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -1869,10 +2108,13 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>1.183333333333333</v>
+      </c>
+      <c r="D80" t="n">
         <v>928</v>
       </c>
-      <c r="D80" t="n">
-        <v>1.183333333333333</v>
+      <c r="E80" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -1886,10 +2128,13 @@
           <t>FC(F)(F)C1(F)OC1(F)F</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="n">
         <v>2072</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1903,10 +2148,13 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
         <v>788696</v>
       </c>
-      <c r="D82" t="n">
-        <v>4</v>
+      <c r="E82" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -1921,10 +2169,13 @@
         </is>
       </c>
       <c r="C83" t="n">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
         <v>318.5</v>
       </c>
-      <c r="D83" t="n">
-        <v>6</v>
+      <c r="E83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -1939,10 +2190,13 @@
         </is>
       </c>
       <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
         <v>116000</v>
       </c>
-      <c r="D84" t="n">
-        <v>4</v>
+      <c r="E84" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -1957,10 +2211,13 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
         <v>6643</v>
       </c>
-      <c r="D85" t="n">
-        <v>6</v>
+      <c r="E85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -1975,10 +2232,13 @@
         </is>
       </c>
       <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
         <v>463</v>
       </c>
-      <c r="D86" t="n">
-        <v>4</v>
+      <c r="E86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -1993,10 +2253,13 @@
         </is>
       </c>
       <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
         <v>1700</v>
       </c>
-      <c r="D87" t="n">
-        <v>4</v>
+      <c r="E87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2011,10 +2274,13 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
         <v>1224</v>
       </c>
-      <c r="D88" t="n">
-        <v>4</v>
+      <c r="E88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -2029,10 +2295,13 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
         <v>10000</v>
       </c>
-      <c r="D89" t="n">
-        <v>6</v>
+      <c r="E89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -2047,10 +2316,13 @@
         </is>
       </c>
       <c r="C90" t="n">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
         <v>7228</v>
       </c>
-      <c r="D90" t="n">
-        <v>6</v>
+      <c r="E90" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -2065,10 +2337,13 @@
         </is>
       </c>
       <c r="C91" t="n">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
         <v>6372.666666666667</v>
       </c>
-      <c r="D91" t="n">
-        <v>6</v>
+      <c r="E91" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -2083,10 +2358,13 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
         <v>2765</v>
       </c>
-      <c r="D92" t="n">
-        <v>6</v>
+      <c r="E92" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -2101,10 +2379,13 @@
         </is>
       </c>
       <c r="C93" t="n">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
         <v>25</v>
       </c>
-      <c r="D93" t="n">
-        <v>6</v>
+      <c r="E93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2119,9 +2400,12 @@
         </is>
       </c>
       <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
         <v>8050</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2137,10 +2421,13 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" t="n">
         <v>2421</v>
       </c>
-      <c r="D95" t="n">
-        <v>0.5</v>
+      <c r="E95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -2155,10 +2442,13 @@
         </is>
       </c>
       <c r="C96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D96" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="D96" t="n">
-        <v>2.2</v>
+      <c r="E96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2173,10 +2463,13 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
         <v>1774</v>
       </c>
-      <c r="D97" t="n">
-        <v>4</v>
+      <c r="E97" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2191,10 +2484,13 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="n">
         <v>295</v>
       </c>
-      <c r="D98" t="n">
-        <v>4</v>
+      <c r="E98" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2209,10 +2505,13 @@
         </is>
       </c>
       <c r="C99" t="n">
+        <v>4</v>
+      </c>
+      <c r="D99" t="n">
         <v>342</v>
       </c>
-      <c r="D99" t="n">
-        <v>4</v>
+      <c r="E99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2227,10 +2526,13 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>4</v>
+      </c>
+      <c r="D100" t="n">
         <v>1310</v>
       </c>
-      <c r="D100" t="n">
-        <v>4</v>
+      <c r="E100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2245,9 +2547,12 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
         <v>8050</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2263,10 +2568,13 @@
         </is>
       </c>
       <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" t="n">
         <v>1300</v>
       </c>
-      <c r="D102" t="n">
-        <v>4</v>
+      <c r="E102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -2281,10 +2589,13 @@
         </is>
       </c>
       <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
         <v>60000</v>
       </c>
-      <c r="D103" t="n">
-        <v>1</v>
+      <c r="E103" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -2299,9 +2610,12 @@
         </is>
       </c>
       <c r="C104" t="n">
+        <v>4</v>
+      </c>
+      <c r="D104" t="n">
         <v>16000</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2316,10 +2630,13 @@
           <t>CC[NH2+]CC</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="n">
         <v>5700</v>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2333,9 +2650,12 @@
         </is>
       </c>
       <c r="C106" t="n">
+        <v>4</v>
+      </c>
+      <c r="D106" t="n">
         <v>17000</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2351,10 +2671,13 @@
         </is>
       </c>
       <c r="C107" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
         <v>10000</v>
       </c>
-      <c r="D107" t="n">
-        <v>6</v>
+      <c r="E107" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -2369,10 +2692,13 @@
         </is>
       </c>
       <c r="C108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D108" t="n">
         <v>63</v>
       </c>
-      <c r="D108" t="n">
-        <v>4</v>
+      <c r="E108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2387,10 +2713,13 @@
         </is>
       </c>
       <c r="C109" t="n">
+        <v>6</v>
+      </c>
+      <c r="D109" t="n">
         <v>318.5</v>
       </c>
-      <c r="D109" t="n">
-        <v>6</v>
+      <c r="E109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2405,10 +2734,13 @@
         </is>
       </c>
       <c r="C110" t="n">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
         <v>12.2</v>
       </c>
-      <c r="D110" t="n">
-        <v>6</v>
+      <c r="E110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2423,10 +2755,13 @@
         </is>
       </c>
       <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
         <v>95.3</v>
       </c>
-      <c r="D111" t="n">
-        <v>6</v>
+      <c r="E111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2441,10 +2776,13 @@
         </is>
       </c>
       <c r="C112" t="n">
+        <v>6</v>
+      </c>
+      <c r="D112" t="n">
         <v>200</v>
       </c>
-      <c r="D112" t="n">
-        <v>6</v>
+      <c r="E112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2458,10 +2796,13 @@
           <t>[H][C-]1C(C)=[O][Ti+4]2([O-]CC)([O-]C(C)C)([O]=C1C)[O]=C(C)[C-]([H])C(C)=[O]2</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
         <v>1224</v>
       </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2475,10 +2816,13 @@
         </is>
       </c>
       <c r="C114" t="n">
+        <v>4</v>
+      </c>
+      <c r="D114" t="n">
         <v>102900</v>
       </c>
-      <c r="D114" t="n">
-        <v>4</v>
+      <c r="E114" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -2493,9 +2837,12 @@
         </is>
       </c>
       <c r="C115" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" t="n">
         <v>13700</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2511,10 +2858,13 @@
         </is>
       </c>
       <c r="C116" t="n">
+        <v>4</v>
+      </c>
+      <c r="D116" t="n">
         <v>675</v>
       </c>
-      <c r="D116" t="n">
-        <v>4</v>
+      <c r="E116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2529,9 +2879,12 @@
         </is>
       </c>
       <c r="C117" t="n">
+        <v>4</v>
+      </c>
+      <c r="D117" t="n">
         <v>19000</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2547,9 +2900,12 @@
         </is>
       </c>
       <c r="C118" t="n">
+        <v>4</v>
+      </c>
+      <c r="D118" t="n">
         <v>3587</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2565,9 +2921,12 @@
         </is>
       </c>
       <c r="C119" t="n">
+        <v>4</v>
+      </c>
+      <c r="D119" t="n">
         <v>13300</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2583,10 +2942,13 @@
         </is>
       </c>
       <c r="C120" t="n">
+        <v>4</v>
+      </c>
+      <c r="D120" t="n">
         <v>40250</v>
       </c>
-      <c r="D120" t="n">
-        <v>4</v>
+      <c r="E120" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2601,10 +2963,13 @@
         </is>
       </c>
       <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
         <v>660</v>
       </c>
-      <c r="D121" t="n">
-        <v>4</v>
+      <c r="E121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -2619,10 +2984,13 @@
         </is>
       </c>
       <c r="C122" t="n">
+        <v>6</v>
+      </c>
+      <c r="D122" t="n">
         <v>9923</v>
       </c>
-      <c r="D122" t="n">
-        <v>6</v>
+      <c r="E122" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -2637,9 +3005,12 @@
         </is>
       </c>
       <c r="C123" t="n">
+        <v>4</v>
+      </c>
+      <c r="D123" t="n">
         <v>3540</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2655,10 +3026,13 @@
         </is>
       </c>
       <c r="C124" t="n">
+        <v>4</v>
+      </c>
+      <c r="D124" t="n">
         <v>663000</v>
       </c>
-      <c r="D124" t="n">
-        <v>4</v>
+      <c r="E124" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -2673,9 +3047,12 @@
         </is>
       </c>
       <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="n">
         <v>3500</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2691,10 +3068,13 @@
         </is>
       </c>
       <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
         <v>1785</v>
       </c>
-      <c r="D126" t="n">
-        <v>1</v>
+      <c r="E126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -2709,9 +3089,12 @@
         </is>
       </c>
       <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
         <v>4197</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2727,10 +3110,13 @@
         </is>
       </c>
       <c r="C128" t="n">
+        <v>4</v>
+      </c>
+      <c r="D128" t="n">
         <v>26643</v>
       </c>
-      <c r="D128" t="n">
-        <v>4</v>
+      <c r="E128" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -2745,10 +3131,13 @@
         </is>
       </c>
       <c r="C129" t="n">
+        <v>4</v>
+      </c>
+      <c r="D129" t="n">
         <v>50000</v>
       </c>
-      <c r="D129" t="n">
-        <v>4</v>
+      <c r="E129" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -2763,10 +3152,13 @@
         </is>
       </c>
       <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
         <v>4257</v>
       </c>
-      <c r="D130" t="n">
-        <v>1</v>
+      <c r="E130" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -2781,10 +3173,13 @@
         </is>
       </c>
       <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
         <v>2092</v>
       </c>
-      <c r="D131" t="n">
-        <v>1</v>
+      <c r="E131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -2799,10 +3194,13 @@
         </is>
       </c>
       <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
         <v>1365</v>
       </c>
-      <c r="D132" t="n">
-        <v>1</v>
+      <c r="E132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -2817,10 +3215,13 @@
         </is>
       </c>
       <c r="C133" t="n">
+        <v>4</v>
+      </c>
+      <c r="D133" t="n">
         <v>73860</v>
       </c>
-      <c r="D133" t="n">
-        <v>4</v>
+      <c r="E133" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -2835,10 +3236,13 @@
         </is>
       </c>
       <c r="C134" t="n">
+        <v>6</v>
+      </c>
+      <c r="D134" t="n">
         <v>3000</v>
       </c>
-      <c r="D134" t="n">
-        <v>6</v>
+      <c r="E134" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -2853,10 +3257,13 @@
         </is>
       </c>
       <c r="C135" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" t="n">
         <v>784</v>
       </c>
-      <c r="D135" t="n">
-        <v>4</v>
+      <c r="E135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -2871,10 +3278,13 @@
         </is>
       </c>
       <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
         <v>1121</v>
       </c>
-      <c r="D136" t="n">
-        <v>1</v>
+      <c r="E136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -2889,10 +3299,13 @@
         </is>
       </c>
       <c r="C137" t="n">
+        <v>4</v>
+      </c>
+      <c r="D137" t="n">
         <v>405000</v>
       </c>
-      <c r="D137" t="n">
-        <v>4</v>
+      <c r="E137" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -2907,10 +3320,13 @@
         </is>
       </c>
       <c r="C138" t="n">
+        <v>4</v>
+      </c>
+      <c r="D138" t="n">
         <v>500000</v>
       </c>
-      <c r="D138" t="n">
-        <v>4</v>
+      <c r="E138" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="139">
@@ -2925,10 +3341,13 @@
         </is>
       </c>
       <c r="C139" t="n">
+        <v>6</v>
+      </c>
+      <c r="D139" t="n">
         <v>998</v>
       </c>
-      <c r="D139" t="n">
-        <v>6</v>
+      <c r="E139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -2943,10 +3362,13 @@
         </is>
       </c>
       <c r="C140" t="n">
+        <v>6</v>
+      </c>
+      <c r="D140" t="n">
         <v>1516</v>
       </c>
-      <c r="D140" t="n">
-        <v>6</v>
+      <c r="E140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -2961,10 +3383,13 @@
         </is>
       </c>
       <c r="C141" t="n">
+        <v>4</v>
+      </c>
+      <c r="D141" t="n">
         <v>2.55</v>
       </c>
-      <c r="D141" t="n">
-        <v>4</v>
+      <c r="E141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -2979,10 +3404,13 @@
         </is>
       </c>
       <c r="C142" t="n">
+        <v>6</v>
+      </c>
+      <c r="D142" t="n">
         <v>318.5</v>
       </c>
-      <c r="D142" t="n">
-        <v>6</v>
+      <c r="E142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -2996,10 +3424,13 @@
           <t>CC(C)=CC(C)(C)CC(C)(C)C</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
         <v>4185</v>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3013,10 +3444,13 @@
         </is>
       </c>
       <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
         <v>185</v>
       </c>
-      <c r="D144" t="n">
-        <v>1</v>
+      <c r="E144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3031,10 +3465,13 @@
         </is>
       </c>
       <c r="C145" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" t="n">
         <v>474.3333333333333</v>
       </c>
-      <c r="D145" t="n">
-        <v>4</v>
+      <c r="E145" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3049,10 +3486,13 @@
         </is>
       </c>
       <c r="C146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D146" t="n">
         <v>5312.5</v>
       </c>
-      <c r="D146" t="n">
-        <v>2.5</v>
+      <c r="E146" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -3067,10 +3507,13 @@
         </is>
       </c>
       <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
         <v>1257</v>
       </c>
-      <c r="D147" t="n">
-        <v>1</v>
+      <c r="E147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -3085,10 +3528,13 @@
         </is>
       </c>
       <c r="C148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D148" t="n">
         <v>42.85</v>
       </c>
-      <c r="D148" t="n">
-        <v>2.5</v>
+      <c r="E148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3103,9 +3549,12 @@
         </is>
       </c>
       <c r="C149" t="n">
+        <v>4</v>
+      </c>
+      <c r="D149" t="n">
         <v>9600</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3121,10 +3570,13 @@
         </is>
       </c>
       <c r="C150" t="n">
+        <v>4</v>
+      </c>
+      <c r="D150" t="n">
         <v>73860</v>
       </c>
-      <c r="D150" t="n">
-        <v>4</v>
+      <c r="E150" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -3139,10 +3591,13 @@
         </is>
       </c>
       <c r="C151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D151" t="n">
         <v>1156.25</v>
       </c>
-      <c r="D151" t="n">
-        <v>2.5</v>
+      <c r="E151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -3157,9 +3612,12 @@
         </is>
       </c>
       <c r="C152" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" t="n">
         <v>10000</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3175,9 +3633,12 @@
         </is>
       </c>
       <c r="C153" t="n">
+        <v>4</v>
+      </c>
+      <c r="D153" t="n">
         <v>8050</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3193,10 +3654,13 @@
         </is>
       </c>
       <c r="C154" t="n">
+        <v>4</v>
+      </c>
+      <c r="D154" t="n">
         <v>77.7</v>
       </c>
-      <c r="D154" t="n">
-        <v>4</v>
+      <c r="E154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3211,10 +3675,13 @@
         </is>
       </c>
       <c r="C155" t="n">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
         <v>10.5</v>
       </c>
-      <c r="D155" t="n">
-        <v>6</v>
+      <c r="E155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3229,9 +3696,12 @@
         </is>
       </c>
       <c r="C156" t="n">
+        <v>4</v>
+      </c>
+      <c r="D156" t="n">
         <v>8050</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3247,9 +3717,12 @@
         </is>
       </c>
       <c r="C157" t="n">
+        <v>4</v>
+      </c>
+      <c r="D157" t="n">
         <v>2529.5</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3265,10 +3738,13 @@
         </is>
       </c>
       <c r="C158" t="n">
+        <v>4</v>
+      </c>
+      <c r="D158" t="n">
         <v>862</v>
       </c>
-      <c r="D158" t="n">
-        <v>4</v>
+      <c r="E158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -3283,10 +3759,13 @@
         </is>
       </c>
       <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" t="n">
         <v>210</v>
       </c>
-      <c r="D159" t="n">
-        <v>4</v>
+      <c r="E159" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -3300,10 +3779,13 @@
           <t>CCB(CC)CC</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
         <v>738</v>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3316,10 +3798,13 @@
           <t>OCC1CCCO1</t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
         <v>751</v>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3333,10 +3818,13 @@
         </is>
       </c>
       <c r="C162" t="n">
+        <v>4</v>
+      </c>
+      <c r="D162" t="n">
         <v>1774</v>
       </c>
-      <c r="D162" t="n">
-        <v>4</v>
+      <c r="E162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -3351,10 +3839,13 @@
         </is>
       </c>
       <c r="C163" t="n">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
         <v>1516</v>
       </c>
-      <c r="D163" t="n">
-        <v>6</v>
+      <c r="E163" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tg403/data/ppm.xlsx
+++ b/tg403/data/ppm.xlsx
@@ -1831,8 +1831,10 @@
           <t>26471-62-5</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Cc1ccc(cc1N=C=O)N=C=O</t>
+        </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
